--- a/trend_results/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
+++ b/trend_results/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/trend_results/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
+++ b/trend_results/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>site name</t>
   </si>
@@ -100,13 +100,10 @@
     <t>RepSite</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>As likely as not improving</t>
   </si>
   <si>
     <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -573,31 +570,31 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>0.0056724803343153</v>
+        <v>0.616002693587173</v>
       </c>
       <c r="G2">
-        <v>0.0434782608695652</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="H2">
-        <v>0.617391304347826</v>
+        <v>0.658333333333333</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K2">
-        <v>24.6582278481013</v>
+        <v>-1.26918465662127</v>
       </c>
       <c r="L2">
-        <v>6.46840053398415</v>
+        <v>-20.0839412221147</v>
       </c>
       <c r="M2">
-        <v>57.3909705275371</v>
+        <v>12.1431518701175</v>
       </c>
       <c r="N2">
-        <v>22.4165707710012</v>
+        <v>-0.793240410388293</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -612,19 +609,19 @@
         <v>5517436</v>
       </c>
       <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -644,31 +641,31 @@
         <v>26</v>
       </c>
       <c r="F3">
-        <v>0.128698546800585</v>
+        <v>0.242526412334481</v>
       </c>
       <c r="G3">
-        <v>0.05</v>
+        <v>0.0336134453781513</v>
       </c>
       <c r="H3">
-        <v>0.570833333333333</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>144.5</v>
       </c>
       <c r="K3">
-        <v>3.42881090746536</v>
+        <v>1.9784832982245</v>
       </c>
       <c r="L3">
-        <v>-0.949791220281619</v>
+        <v>-2.71100879474329</v>
       </c>
       <c r="M3">
-        <v>8.969818916474161</v>
+        <v>7.34911614284329</v>
       </c>
       <c r="N3">
-        <v>2.37287952073727</v>
+        <v>1.36919259392699</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -683,19 +680,19 @@
         <v>5517436</v>
       </c>
       <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
         <v>31</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>32</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>33</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>34</v>
-      </c>
-      <c r="W3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -715,37 +712,37 @@
         <v>26</v>
       </c>
       <c r="F4">
-        <v>0.0915144303247564</v>
+        <v>0.245246317502631</v>
       </c>
       <c r="G4">
-        <v>0.0460122699386503</v>
+        <v>0.0415512465373961</v>
       </c>
       <c r="H4">
-        <v>0.521472392638037</v>
+        <v>0.523545706371191</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K4">
-        <v>2.28253019077926</v>
+        <v>0.961026796734192</v>
       </c>
       <c r="L4">
-        <v>-0.252692921151235</v>
+        <v>-1.30446428571429</v>
       </c>
       <c r="M4">
-        <v>5.50357328332379</v>
+        <v>3.75490654205607</v>
       </c>
       <c r="N4">
-        <v>1.81153189744385</v>
+        <v>0.711871701284587</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4">
         <v>1789653</v>
@@ -754,19 +751,19 @@
         <v>5517436</v>
       </c>
       <c r="S4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" t="s">
         <v>31</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>32</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>33</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>34</v>
-      </c>
-      <c r="W4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
